--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG_Values.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG_Values.xlsx
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31681.743579397</v>
+        <v>28732.4209622781</v>
       </c>
     </row>
     <row r="5">
@@ -445,7 +445,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10931.7198293127</v>
+        <v>9914.0621850672</v>
       </c>
     </row>
     <row r="6">
@@ -453,7 +453,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9044.18177835494</v>
+        <v>8820.10086146758</v>
       </c>
     </row>
     <row r="7">
@@ -461,7 +461,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6330.92724484846</v>
+        <v>6174.0706030273</v>
       </c>
     </row>
     <row r="8">
@@ -469,7 +469,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21806.5271767002</v>
+        <v>21266.2431882052</v>
       </c>
     </row>
     <row r="9">
@@ -477,7 +477,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6680.49545124665</v>
+        <v>6058.59355754107</v>
       </c>
     </row>
     <row r="10">
@@ -485,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10853.0181340259</v>
+        <v>10584.1210337611</v>
       </c>
     </row>
     <row r="11">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1507.36362972582</v>
+        <v>1470.0168102446</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>92888.6433827867</v>
+        <v>71276.983627979</v>
       </c>
     </row>
     <row r="13">
@@ -509,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>64896.2418216083</v>
+        <v>49797.3508642427</v>
       </c>
     </row>
     <row r="14">
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>27394.6926099237</v>
+        <v>24443.1033114748</v>
       </c>
     </row>
     <row r="15">
@@ -525,7 +525,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>31381.2336986813</v>
+        <v>28000.1220769506</v>
       </c>
     </row>
     <row r="16">
@@ -533,7 +533,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>23817.0275302695</v>
+        <v>21250.9069834837</v>
       </c>
     </row>
     <row r="17">
@@ -541,7 +541,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>75028.7476704627</v>
+        <v>66944.9172784421</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +549,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>19421.6104324086</v>
+        <v>17329.0657805231</v>
       </c>
     </row>
     <row r="19">
@@ -557,7 +557,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>61842.49637688</v>
+        <v>55179.3936695606</v>
       </c>
     </row>
     <row r="20">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>9488.81487025818</v>
+        <v>12788.0812882577</v>
       </c>
     </row>
     <row r="21">
@@ -573,7 +573,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>18603.8584142019</v>
+        <v>16599.4209055538</v>
       </c>
     </row>
     <row r="22">
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31775.7574938656</v>
+        <v>31681.743579397</v>
       </c>
     </row>
     <row r="5">
@@ -629,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10964.1591352636</v>
+        <v>10931.7198293127</v>
       </c>
     </row>
     <row r="6">
@@ -637,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9254.38887993426</v>
+        <v>9044.18177835494</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6478.07221595398</v>
+        <v>6330.92724484846</v>
       </c>
     </row>
     <row r="8">
@@ -653,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22313.3598549526</v>
+        <v>21806.5271767002</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6700.31947154995</v>
+        <v>6680.49545124665</v>
       </c>
     </row>
     <row r="10">
@@ -669,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11105.2666559211</v>
+        <v>10853.0181340259</v>
       </c>
     </row>
     <row r="11">
@@ -677,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1542.39814665571</v>
+        <v>1507.36362972582</v>
       </c>
     </row>
     <row r="12">
@@ -685,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>89630.3043069251</v>
+        <v>92888.6433827867</v>
       </c>
     </row>
     <row r="13">
@@ -693,7 +693,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>62619.8175688337</v>
+        <v>64896.2418216083</v>
       </c>
     </row>
     <row r="14">
@@ -701,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>26062.9776556685</v>
+        <v>27394.6926099237</v>
       </c>
     </row>
     <row r="15">
@@ -709,7 +709,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>29855.724404068</v>
+        <v>31381.2336986813</v>
       </c>
     </row>
     <row r="16">
@@ -717,7 +717,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>22659.2305737715</v>
+        <v>23817.0275302695</v>
       </c>
     </row>
     <row r="17">
@@ -725,7 +725,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>71381.4388032113</v>
+        <v>75028.7476704627</v>
       </c>
     </row>
     <row r="18">
@@ -733,7 +733,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>18477.4841588693</v>
+        <v>19421.6104324086</v>
       </c>
     </row>
     <row r="19">
@@ -741,7 +741,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>58836.1995585053</v>
+        <v>61842.49637688</v>
       </c>
     </row>
     <row r="20">
@@ -749,7 +749,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>4313.30180486175</v>
+        <v>12802.08957378</v>
       </c>
     </row>
     <row r="21">
@@ -757,7 +757,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17699.4848258644</v>
+        <v>18603.8584142019</v>
       </c>
     </row>
     <row r="22">
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29062.5593656335</v>
+        <v>26090.7408331229</v>
       </c>
     </row>
     <row r="5">
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10027.9757555541</v>
+        <v>9002.55594241941</v>
       </c>
     </row>
     <row r="6">
@@ -821,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8971.76928531528</v>
+        <v>8485.86095358136</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6280.2384997207</v>
+        <v>5940.10266750696</v>
       </c>
     </row>
     <row r="8">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21631.932610149</v>
+        <v>20460.353632524</v>
       </c>
     </row>
     <row r="9">
@@ -845,7 +845,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6128.20740617192</v>
+        <v>5501.56196481186</v>
       </c>
     </row>
     <row r="10">
@@ -853,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10766.1231423783</v>
+        <v>10183.0331442976</v>
       </c>
     </row>
     <row r="11">
@@ -861,7 +861,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1495.29488088588</v>
+        <v>1414.31015893023</v>
       </c>
     </row>
     <row r="12">
@@ -869,7 +869,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>106672.613143139</v>
+        <v>54913.4886191677</v>
       </c>
     </row>
     <row r="13">
@@ -877,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>74526.3516203194</v>
+        <v>38365.067105265</v>
       </c>
     </row>
     <row r="14">
@@ -885,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24709.9823889835</v>
+        <v>16995.8415208027</v>
       </c>
     </row>
     <row r="15">
@@ -893,7 +893,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28305.8380351415</v>
+        <v>19469.116965994</v>
       </c>
     </row>
     <row r="16">
@@ -901,7 +901,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21482.9324501236</v>
+        <v>14776.2353520411</v>
       </c>
     </row>
     <row r="17">
@@ -909,7 +909,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>67675.8472892307</v>
+        <v>46548.3122248847</v>
       </c>
     </row>
     <row r="18">
@@ -917,7 +917,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17518.2710966673</v>
+        <v>12049.2906304197</v>
       </c>
     </row>
     <row r="19">
@@ -925,7 +925,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>55781.8632288618</v>
+        <v>38367.4780600208</v>
       </c>
     </row>
     <row r="20">
@@ -933,7 +933,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>1020.15321023457</v>
+        <v>13377.5750928791</v>
       </c>
     </row>
     <row r="21">
@@ -941,7 +941,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16780.6596820707</v>
+        <v>11541.95207756</v>
       </c>
     </row>
     <row r="22">
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>28817.931524063</v>
+        <v>31775.7574938656</v>
       </c>
     </row>
     <row r="5">
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9943.56742683324</v>
+        <v>10964.1591352636</v>
       </c>
     </row>
     <row r="6">
@@ -1005,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8829.99757981908</v>
+        <v>9254.38887993426</v>
       </c>
     </row>
     <row r="7">
@@ -1013,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6180.99830587336</v>
+        <v>6478.07221595398</v>
       </c>
     </row>
     <row r="8">
@@ -1021,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21290.105275786</v>
+        <v>22313.3598549526</v>
       </c>
     </row>
     <row r="9">
@@ -1029,7 +1029,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6076.62453862032</v>
+        <v>6700.31947154995</v>
       </c>
     </row>
     <row r="10">
@@ -1037,7 +1037,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10595.9970957829</v>
+        <v>11105.2666559211</v>
       </c>
     </row>
     <row r="11">
@@ -1045,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1471.66626330318</v>
+        <v>1542.39814665571</v>
       </c>
     </row>
     <row r="12">
@@ -1053,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>72237.6397457232</v>
+        <v>89630.3043069251</v>
       </c>
     </row>
     <row r="13">
@@ -1061,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>50468.5090322829</v>
+        <v>62619.8175688337</v>
       </c>
     </row>
     <row r="14">
@@ -1069,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24576.3144560977</v>
+        <v>26062.9776556685</v>
       </c>
     </row>
     <row r="15">
@@ -1077,7 +1077,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28152.7184254552</v>
+        <v>29855.724404068</v>
       </c>
     </row>
     <row r="16">
@@ -1085,7 +1085,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21366.721150264</v>
+        <v>22659.2305737715</v>
       </c>
     </row>
     <row r="17">
@@ -1093,7 +1093,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>67309.7567566257</v>
+        <v>71381.4388032113</v>
       </c>
     </row>
     <row r="18">
@@ -1101,7 +1101,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17423.5065173827</v>
+        <v>18477.4841588693</v>
       </c>
     </row>
     <row r="19">
@@ -1109,7 +1109,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>55480.1128579817</v>
+        <v>58836.1995585053</v>
       </c>
     </row>
     <row r="20">
@@ -1117,7 +1117,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>9475.27464926266</v>
+        <v>13423.8447979493</v>
       </c>
     </row>
     <row r="21">
@@ -1125,7 +1125,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16689.885190335</v>
+        <v>17699.4848258644</v>
       </c>
     </row>
     <row r="22">
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>27543.2456332195</v>
+        <v>17754.5715283476</v>
       </c>
     </row>
     <row r="5">
@@ -1181,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9503.73970730896</v>
+        <v>6126.17803534038</v>
       </c>
     </row>
     <row r="6">
@@ -1189,7 +1189,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8762.58976333759</v>
+        <v>7646.57538868401</v>
       </c>
     </row>
     <row r="7">
@@ -1197,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6133.81283433632</v>
+        <v>5352.60277207881</v>
       </c>
     </row>
     <row r="8">
@@ -1205,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21127.5775404918</v>
+        <v>18436.7428816048</v>
       </c>
     </row>
     <row r="9">
@@ -1213,7 +1213,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5807.84093224436</v>
+        <v>3743.77546604133</v>
       </c>
     </row>
     <row r="10">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10515.1077160051</v>
+        <v>9175.89046642081</v>
       </c>
     </row>
     <row r="11">
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1460.43162722293</v>
+        <v>1274.42923144734</v>
       </c>
     </row>
     <row r="12">
@@ -1237,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>63367.2756188101</v>
+        <v>65937.7531173411</v>
       </c>
     </row>
     <row r="13">
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>44271.2681806359</v>
+        <v>46067.1209702417</v>
       </c>
     </row>
     <row r="14">
@@ -1253,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>20138.1144766715</v>
+        <v>14004.9075756615</v>
       </c>
     </row>
     <row r="15">
@@ -1261,7 +1261,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>23068.6609863362</v>
+        <v>16042.9351706272</v>
       </c>
     </row>
     <row r="16">
@@ -1269,7 +1269,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>17508.1368397927</v>
+        <v>12175.9084519744</v>
       </c>
     </row>
     <row r="17">
@@ -1277,7 +1277,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>55154.3881562566</v>
+        <v>38356.7244796103</v>
       </c>
     </row>
     <row r="18">
@@ -1285,7 +1285,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>14277.0214573416</v>
+        <v>9928.85238573018</v>
       </c>
     </row>
     <row r="19">
@@ -1293,7 +1293,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>45461.0420089037</v>
+        <v>31615.5562808777</v>
       </c>
     </row>
     <row r="20">
@@ -1301,7 +1301,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>4284.25458790946</v>
+        <v>13728.1324234622</v>
       </c>
     </row>
     <row r="21">
@@ -1309,7 +1309,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>13675.8837117694</v>
+        <v>9510.79544317312</v>
       </c>
     </row>
     <row r="22">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>17993.372840863</v>
+        <v>29202.3042101338</v>
       </c>
     </row>
     <row r="5">
@@ -1365,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6208.57593231059</v>
+        <v>10076.1944239439</v>
       </c>
     </row>
     <row r="6">
@@ -1373,7 +1373,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7522.83808839965</v>
+        <v>9153.59405147333</v>
       </c>
     </row>
     <row r="7">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5265.98666187976</v>
+        <v>6407.51583603134</v>
       </c>
     </row>
     <row r="8">
@@ -1389,7 +1389,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>18138.3985020303</v>
+        <v>22070.3323241079</v>
       </c>
     </row>
     <row r="9">
@@ -1397,7 +1397,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3794.12973641202</v>
+        <v>6157.67437018794</v>
       </c>
     </row>
     <row r="10">
@@ -1405,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9027.40570607958</v>
+        <v>10984.312861768</v>
       </c>
     </row>
     <row r="11">
@@ -1413,7 +1413,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1253.80634806661</v>
+        <v>1525.59900857889</v>
       </c>
     </row>
     <row r="12">
@@ -1421,7 +1421,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>67748.4512744103</v>
+        <v>106672.613143139</v>
       </c>
     </row>
     <row r="13">
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>47332.1572673363</v>
+        <v>74526.3516203194</v>
       </c>
     </row>
     <row r="14">
@@ -1437,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>14404.391824541</v>
+        <v>24762.9427445076</v>
       </c>
     </row>
     <row r="15">
@@ -1445,7 +1445,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>16500.5533213959</v>
+        <v>28366.5053080738</v>
       </c>
     </row>
     <row r="16">
@@ -1453,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>12523.2212504405</v>
+        <v>21528.9763413068</v>
       </c>
     </row>
     <row r="17">
@@ -1461,7 +1461,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>39450.8343254221</v>
+        <v>67820.8954271212</v>
       </c>
     </row>
     <row r="18">
@@ -1469,7 +1469,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>10212.0688308313</v>
+        <v>17555.8176173746</v>
       </c>
     </row>
     <row r="19">
@@ -1477,7 +1477,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>32517.3770665945</v>
+        <v>55901.4192553247</v>
       </c>
     </row>
     <row r="20">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>94.2413274557146</v>
+        <v>13793.8735278091</v>
       </c>
     </row>
     <row r="21">
@@ -1493,7 +1493,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>9782.08698532265</v>
+        <v>16816.625296643</v>
       </c>
     </row>
     <row r="22">

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG_Values.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG_Values.xlsx
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>26090.7408331229</v>
+        <v>26046.5300774394</v>
       </c>
     </row>
     <row r="5">
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9002.55594241941</v>
+        <v>8987.3011129823</v>
       </c>
     </row>
     <row r="6">
@@ -821,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8485.86095358136</v>
+        <v>8516.60102624779</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5940.10266750696</v>
+        <v>5961.62071837346</v>
       </c>
     </row>
     <row r="8">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20460.353632524</v>
+        <v>20534.4713632864</v>
       </c>
     </row>
     <row r="9">
@@ -845,7 +845,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>5501.56196481186</v>
+        <v>5492.23956904474</v>
       </c>
     </row>
     <row r="10">
@@ -853,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10183.0331442976</v>
+        <v>10219.9212314974</v>
       </c>
     </row>
     <row r="11">
@@ -861,7 +861,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1414.31015893023</v>
+        <v>1419.43350437463</v>
       </c>
     </row>
     <row r="12">
@@ -869,7 +869,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>54913.4886191677</v>
+        <v>53986.765787726</v>
       </c>
     </row>
     <row r="13">
@@ -877,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>38365.067105265</v>
+        <v>37717.6162783322</v>
       </c>
     </row>
     <row r="14">
@@ -885,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>16995.8415208027</v>
+        <v>16597.7386056623</v>
       </c>
     </row>
     <row r="15">
@@ -893,7 +893,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>19469.116965994</v>
+        <v>19013.0811639488</v>
       </c>
     </row>
     <row r="16">
@@ -901,7 +901,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>14776.2353520411</v>
+        <v>14430.1234892511</v>
       </c>
     </row>
     <row r="17">
@@ -909,7 +909,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>46548.3122248847</v>
+        <v>45457.9855841644</v>
       </c>
     </row>
     <row r="18">
@@ -917,7 +917,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>12049.2906304197</v>
+        <v>11767.0534890888</v>
       </c>
     </row>
     <row r="19">
@@ -925,7 +925,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>38367.4780600208</v>
+        <v>37468.7755836778</v>
       </c>
     </row>
     <row r="20">
@@ -933,7 +933,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13377.5750928791</v>
+        <v>13501.5108579774</v>
       </c>
     </row>
     <row r="21">
@@ -941,7 +941,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>11541.95207756</v>
+        <v>11271.5986053378</v>
       </c>
     </row>
     <row r="22">
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31775.7574938656</v>
+        <v>37190.1334354117</v>
       </c>
     </row>
     <row r="5">
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10964.1591352636</v>
+        <v>12832.3783099823</v>
       </c>
     </row>
     <row r="6">
@@ -1005,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9254.38887993426</v>
+        <v>10417.3641511772</v>
       </c>
     </row>
     <row r="7">
@@ -1013,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6478.07221595398</v>
+        <v>7292.15490582407</v>
       </c>
     </row>
     <row r="8">
@@ -1021,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22313.3598549526</v>
+        <v>25117.422453394</v>
       </c>
     </row>
     <row r="9">
@@ -1029,7 +1029,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6700.31947154995</v>
+        <v>7842.00896721142</v>
       </c>
     </row>
     <row r="10">
@@ -1037,7 +1037,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>11105.2666559211</v>
+        <v>12500.8369814127</v>
       </c>
     </row>
     <row r="11">
@@ -1045,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1542.39814665571</v>
+        <v>1736.22735852954</v>
       </c>
     </row>
     <row r="12">
@@ -1053,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>89630.3043069251</v>
+        <v>115845.135695649</v>
       </c>
     </row>
     <row r="13">
@@ -1061,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>62619.8175688337</v>
+        <v>80934.6941259673</v>
       </c>
     </row>
     <row r="14">
@@ -1069,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>26062.9776556685</v>
+        <v>38204.4613606286</v>
       </c>
     </row>
     <row r="15">
@@ -1077,7 +1077,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>29855.724404068</v>
+        <v>43764.065812362</v>
       </c>
     </row>
     <row r="16">
@@ -1085,7 +1085,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>22659.2305737715</v>
+        <v>33215.0727500988</v>
       </c>
     </row>
     <row r="17">
@@ -1093,7 +1093,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>71381.4388032113</v>
+        <v>104634.606860826</v>
       </c>
     </row>
     <row r="18">
@@ -1101,7 +1101,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>18477.4841588693</v>
+        <v>27085.2524571621</v>
       </c>
     </row>
     <row r="19">
@@ -1109,7 +1109,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>58836.1995585053</v>
+        <v>86245.1459820162</v>
       </c>
     </row>
     <row r="20">
@@ -1117,7 +1117,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13423.8447979493</v>
+        <v>13624.2905810236</v>
       </c>
     </row>
     <row r="21">
@@ -1125,7 +1125,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>17699.4848258644</v>
+        <v>25944.8207747552</v>
       </c>
     </row>
     <row r="22">
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>17754.5715283476</v>
+        <v>17073.8772412263</v>
       </c>
     </row>
     <row r="5">
@@ -1181,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6126.17803534038</v>
+        <v>5891.30588515154</v>
       </c>
     </row>
     <row r="6">
@@ -1189,7 +1189,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7646.57538868401</v>
+        <v>7657.93569908772</v>
       </c>
     </row>
     <row r="7">
@@ -1197,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5352.60277207881</v>
+        <v>5360.55498936141</v>
       </c>
     </row>
     <row r="8">
@@ -1205,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>18436.7428816048</v>
+        <v>18464.1338522448</v>
       </c>
     </row>
     <row r="9">
@@ -1213,7 +1213,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>3743.77546604133</v>
+        <v>3600.24248537038</v>
       </c>
     </row>
     <row r="10">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>9175.89046642081</v>
+        <v>9189.52283890526</v>
       </c>
     </row>
     <row r="11">
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1274.42923144734</v>
+        <v>1276.32261651462</v>
       </c>
     </row>
     <row r="12">
@@ -1301,7 +1301,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13728.1324234622</v>
+        <v>13976.0335910038</v>
       </c>
     </row>
     <row r="21">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>29202.3042101338</v>
+        <v>47839.1485993502</v>
       </c>
     </row>
     <row r="5">
@@ -1365,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10076.1944239439</v>
+        <v>16506.7988777311</v>
       </c>
     </row>
     <row r="6">
@@ -1373,7 +1373,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9153.59405147333</v>
+        <v>11907.2568573785</v>
       </c>
     </row>
     <row r="7">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6407.51583603134</v>
+        <v>8335.07980016495</v>
       </c>
     </row>
     <row r="8">
@@ -1389,7 +1389,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>22070.3323241079</v>
+        <v>28709.7193116792</v>
       </c>
     </row>
     <row r="9">
@@ -1397,7 +1397,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6157.67437018794</v>
+        <v>10087.4882030579</v>
       </c>
     </row>
     <row r="10">
@@ -1405,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10984.312861768</v>
+        <v>14288.7082288542</v>
       </c>
     </row>
     <row r="11">
@@ -1413,7 +1413,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1525.59900857889</v>
+        <v>1984.54280956308</v>
       </c>
     </row>
     <row r="12">
@@ -1421,7 +1421,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>106672.613143139</v>
+        <v>146596.084865546</v>
       </c>
     </row>
     <row r="13">
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>74526.3516203194</v>
+        <v>102418.709403807</v>
       </c>
     </row>
     <row r="14">
@@ -1437,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>24762.9427445076</v>
+        <v>44606.7331260819</v>
       </c>
     </row>
     <row r="15">
@@ -1445,7 +1445,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>28366.5053080738</v>
+        <v>51098.0114541311</v>
       </c>
     </row>
     <row r="16">
@@ -1453,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>21528.9763413068</v>
+        <v>38781.2269342428</v>
       </c>
     </row>
     <row r="17">
@@ -1461,7 +1461,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>67820.8954271212</v>
+        <v>122169.186994567</v>
       </c>
     </row>
     <row r="18">
@@ -1469,7 +1469,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>17555.8176173746</v>
+        <v>31624.1764699833</v>
       </c>
     </row>
     <row r="19">
@@ -1477,7 +1477,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>55901.4192553247</v>
+        <v>100698.035601789</v>
       </c>
     </row>
     <row r="20">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13793.8735278091</v>
+        <v>14167.6811092898</v>
       </c>
     </row>
     <row r="21">
@@ -1493,7 +1493,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>16816.625296643</v>
+        <v>30292.632197563</v>
       </c>
     </row>
     <row r="22">

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG_Values.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI+AG_Values.xlsx
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>31681.743579397</v>
+        <v>31554.495719598</v>
       </c>
     </row>
     <row r="5">
@@ -629,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10931.7198293127</v>
+        <v>10887.8132195418</v>
       </c>
     </row>
     <row r="6">
@@ -637,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9044.18177835494</v>
+        <v>9029.45451890329</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6330.92724484846</v>
+        <v>6320.61816323231</v>
       </c>
     </row>
     <row r="8">
@@ -653,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>21806.5271767002</v>
+        <v>21771.0181178002</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6680.49545124665</v>
+        <v>6653.66363416444</v>
       </c>
     </row>
     <row r="10">
@@ -669,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>10853.0181340259</v>
+        <v>10835.345422684</v>
       </c>
     </row>
     <row r="11">
@@ -677,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1507.36362972582</v>
+        <v>1504.90908648388</v>
       </c>
     </row>
     <row r="12">
@@ -685,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>92888.6433827867</v>
+        <v>91459.0955885245</v>
       </c>
     </row>
     <row r="13">
@@ -693,7 +693,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>64896.2418216083</v>
+        <v>63897.4945477389</v>
       </c>
     </row>
     <row r="14">
@@ -701,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>27394.6926099237</v>
+        <v>27196.4617399491</v>
       </c>
     </row>
     <row r="15">
@@ -709,7 +709,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>31381.2336986813</v>
+        <v>31154.1557991208</v>
       </c>
     </row>
     <row r="16">
@@ -717,7 +717,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>23817.0275302695</v>
+        <v>23644.6850201797</v>
       </c>
     </row>
     <row r="17">
@@ -725,7 +725,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>75028.7476704627</v>
+        <v>74485.8317803084</v>
       </c>
     </row>
     <row r="18">
@@ -733,7 +733,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>19421.6104324086</v>
+        <v>19281.0736216057</v>
       </c>
     </row>
     <row r="19">
@@ -741,7 +741,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>61842.49637688</v>
+        <v>61394.9975845867</v>
       </c>
     </row>
     <row r="20">
@@ -749,7 +749,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>12802.08957378</v>
+        <v>12801.3930491866</v>
       </c>
     </row>
     <row r="21">
@@ -757,7 +757,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>18603.8584142019</v>
+        <v>18469.2389428013</v>
       </c>
     </row>
     <row r="22">
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>37190.1334354117</v>
+        <v>36944.5014600067</v>
       </c>
     </row>
     <row r="5">
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>12832.3783099823</v>
+        <v>12747.6235069671</v>
       </c>
     </row>
     <row r="6">
@@ -1005,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>10417.3641511772</v>
+        <v>10381.029822263</v>
       </c>
     </row>
     <row r="7">
@@ -1013,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7292.15490582407</v>
+        <v>7266.72087558407</v>
       </c>
     </row>
     <row r="8">
@@ -1021,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>25117.422453394</v>
+        <v>25029.816349234</v>
       </c>
     </row>
     <row r="9">
@@ -1029,7 +1029,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>7842.00896721142</v>
+        <v>7790.21436536882</v>
       </c>
     </row>
     <row r="10">
@@ -1037,7 +1037,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>12500.8369814127</v>
+        <v>12457.2357867156</v>
       </c>
     </row>
     <row r="11">
@@ -1045,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1736.22735852954</v>
+        <v>1730.17163704383</v>
       </c>
     </row>
     <row r="12">
@@ -1053,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>115845.135695649</v>
+        <v>113890.725664517</v>
       </c>
     </row>
     <row r="13">
@@ -1061,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>80934.6941259673</v>
+        <v>79569.2541606504</v>
       </c>
     </row>
     <row r="14">
@@ -1069,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>38204.4613606286</v>
+        <v>37755.9361643487</v>
       </c>
     </row>
     <row r="15">
@@ -1077,7 +1077,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>43764.065812362</v>
+        <v>43250.2701584144</v>
       </c>
     </row>
     <row r="16">
@@ -1085,7 +1085,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>33215.0727500988</v>
+        <v>32825.1236055718</v>
       </c>
     </row>
     <row r="17">
@@ -1093,7 +1093,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>104634.606860826</v>
+        <v>103406.183375492</v>
       </c>
     </row>
     <row r="18">
@@ -1101,7 +1101,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>27085.2524571621</v>
+        <v>26767.2681762174</v>
       </c>
     </row>
     <row r="19">
@@ -1109,7 +1109,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>86245.1459820162</v>
+        <v>85232.617087429</v>
       </c>
     </row>
     <row r="20">
@@ -1117,7 +1117,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>13624.2905810236</v>
+        <v>13622.7146419961</v>
       </c>
     </row>
     <row r="21">
@@ -1125,7 +1125,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>25944.8207747552</v>
+        <v>25640.2253056398</v>
       </c>
     </row>
     <row r="22">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>47839.1485993502</v>
+        <v>47426.3527582247</v>
       </c>
     </row>
     <row r="5">
@@ -1365,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>16506.7988777311</v>
+        <v>16364.3645299945</v>
       </c>
     </row>
     <row r="6">
@@ -1373,7 +1373,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>11907.2568573785</v>
+        <v>11842.1844349079</v>
       </c>
     </row>
     <row r="7">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8335.07980016495</v>
+        <v>8289.52910443551</v>
       </c>
     </row>
     <row r="8">
@@ -1389,7 +1389,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>28709.7193116792</v>
+        <v>28552.8224708335</v>
       </c>
     </row>
     <row r="9">
@@ -1397,7 +1397,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>10087.4882030579</v>
+        <v>10000.4449905522</v>
       </c>
     </row>
     <row r="10">
@@ -1405,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>14288.7082288542</v>
+        <v>14210.6213218895</v>
       </c>
     </row>
     <row r="11">
@@ -1413,7 +1413,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1984.54280956308</v>
+        <v>1973.69740581798</v>
       </c>
     </row>
     <row r="12">
@@ -1421,7 +1421,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>146596.084865546</v>
+        <v>143901.593560383</v>
       </c>
     </row>
     <row r="13">
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>102418.709403807</v>
+        <v>100536.214914083</v>
       </c>
     </row>
     <row r="14">
@@ -1437,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>44606.7331260819</v>
+        <v>44012.2625176302</v>
       </c>
     </row>
     <row r="15">
@@ -1445,7 +1445,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>51098.0114541311</v>
+        <v>50417.0320631062</v>
       </c>
     </row>
     <row r="16">
@@ -1453,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>38781.2269342428</v>
+        <v>38264.3924127158</v>
       </c>
     </row>
     <row r="17">
@@ -1461,7 +1461,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>122169.186994567</v>
+        <v>120541.047343062</v>
       </c>
     </row>
     <row r="18">
@@ -1469,7 +1469,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>31624.1764699833</v>
+        <v>31202.7234266781</v>
       </c>
     </row>
     <row r="19">
@@ -1477,7 +1477,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>100698.035601789</v>
+        <v>99356.0403849487</v>
       </c>
     </row>
     <row r="20">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>14167.6811092898</v>
+        <v>14165.592369671</v>
       </c>
     </row>
     <row r="21">
@@ -1493,7 +1493,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>30292.632197563</v>
+        <v>29888.9245455548</v>
       </c>
     </row>
     <row r="22">
